--- a/Files/SocLang Files/SocLang_results.xlsx
+++ b/Files/SocLang Files/SocLang_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/47bc981eb124341c/Ambiente de Trabalho/TESE_2024/DATASETS TESE/DATASET_ANSWERS/SocLang/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="536" documentId="11_AD6FFDCE8F79A8D366075C52F32FCA3010A5AB09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFA32DFE-893A-4EAB-827E-9E6305F9AAA9}"/>
+  <xr:revisionPtr revIDLastSave="595" documentId="11_AD6FFDCE8F79A8D366075C52F32FCA3010A5AB09" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65C4F817-EFE1-4ACC-8FBD-E017CD3C75D3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General Analysis" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="60">
   <si>
     <t>Topic</t>
   </si>
@@ -207,14 +207,24 @@
   <si>
     <t>p (for GPT-4)</t>
   </si>
+  <si>
+    <t>test statistic</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="0.00000%"/>
+    <numFmt numFmtId="165" formatCode="0.00000%"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -241,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -560,28 +570,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -597,33 +585,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,15 +696,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -751,36 +725,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2621,11 +2603,1554 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B409C87-15F6-4FF3-9D58-71045E98FE05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="609600" y="2965450"/>
+              <a:ext cx="9163050" cy="2171700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>Theory</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t> behind hypothesis test:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>To</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> test if GPT-4 is better than GPT-3.5, we can test the following hypothesis:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>: </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑣𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>: </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>&lt;</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>, </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑤h𝑒𝑟𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑒𝑎𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑒𝑎𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4.</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pt-PT" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡𝑒𝑠𝑡</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>:</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑧</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜇</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>−</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜇</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:rad>
+                          <m:radPr>
+                            <m:degHide m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:radPr>
+                          <m:deg/>
+                          <m:e>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝜎</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+ </m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:sSubSup>
+                                  <m:sSubSupPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubSupPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝜎</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                  <m:sup>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sup>
+                                </m:sSubSup>
+                              </m:num>
+                              <m:den>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑛</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>2</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                          </m:e>
+                        </m:rad>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="el-GR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>~</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑁</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(0,1), </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑢𝑛𝑑𝑒𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐻</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>0 </m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑤h𝑒𝑟𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5, </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜎</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑠𝑡𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑𝑒𝑣</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑜𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑡h𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑛𝑢𝑚𝑏𝑒𝑟</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑜𝑓</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑜𝑏𝑠𝑒𝑟𝑣𝑎𝑡𝑖𝑜𝑛𝑠</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑖𝑛</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−3.5 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎𝑛𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐺𝑃𝑇</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−4 </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑟𝑒𝑠𝑝𝑒𝑐𝑡𝑖𝑣𝑒𝑙𝑦</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-PT" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>If the level</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> of confidence is higher than the p-value then we have statistical evidence that GPT-3.5 is less effective than GPT-4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> 	</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B409C87-15F6-4FF3-9D58-71045E98FE05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="609600" y="2965450"/>
+              <a:ext cx="9163050" cy="2171700"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1"/>
+                <a:t>Theory</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+                <a:t> behind hypothesis test:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>To</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> test if GPT-4 is better than GPT-3.5, we can test the following hypothesis:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐻</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2  𝑣𝑠 𝐻_1: </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜇_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>&lt;𝜇_2, 𝑤ℎ𝑒𝑟𝑒 𝜇_1  𝑖𝑠 𝑡ℎ𝑒 𝑚𝑒𝑎𝑛 𝑓𝑜𝑟 𝐺𝑃𝑇−3.5 𝑎𝑛𝑑 𝜇_2 𝑡ℎ𝑒 𝑚𝑒𝑎𝑛 𝑓𝑜𝑟 𝐺𝑃𝑇−4.</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-PT" sz="1100" b="0" i="1">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡𝑒𝑠𝑡 𝑠𝑡𝑎𝑡𝑖𝑠𝑡𝑖𝑐:𝑧=  (𝜇_1−𝜇_2)/√((𝜎_1^2)/𝑛_1 + (𝜎_2^2)/𝑛_2 )  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>~</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝑁(0,1), 𝑢𝑛𝑑𝑒𝑟 𝐻_(0 ) 𝑤ℎ𝑒𝑟𝑒 𝜎_1 𝑖𝑠 𝑡ℎ𝑒 𝑠𝑡𝑑. 𝑑𝑒𝑣. 𝑓𝑜𝑟 𝐺𝑃𝑇−3.5, 𝜎_2 𝑡ℎ𝑒 𝑠𝑡𝑑. 𝑑𝑒𝑣. 𝑓𝑜𝑟 𝐺𝑃𝑇−4 𝑎𝑛𝑑 𝑛_1 𝑎𝑛𝑑 𝑛_2  𝑡ℎ𝑒 𝑛𝑢𝑚𝑏𝑒𝑟 𝑜𝑓 𝑜𝑏𝑠𝑒𝑟𝑣𝑎𝑡𝑖𝑜𝑛𝑠 𝑖𝑛 𝐺𝑃𝑇−3.5 𝑎𝑛𝑑 𝐺𝑃𝑇−4 𝑟𝑒𝑠𝑝𝑒𝑐𝑡𝑖𝑣𝑒𝑙𝑦.</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>If the level</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                <a:t> of confidence is higher than the p-value then we have statistical evidence that GPT-3.5 is less effective than GPT-4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> 	</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2917,7 +4442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+    <sheetView topLeftCell="B6" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -3021,7 +4546,7 @@
       <c r="E2" s="7">
         <v>7</v>
       </c>
-      <c r="F2" s="57">
+      <c r="F2" s="55">
         <f>B2/J2</f>
         <v>0.93333333333333335</v>
       </c>
@@ -3089,7 +4614,7 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="58">
+      <c r="F3" s="56">
         <f t="shared" ref="F3:F9" si="0">B3/J3</f>
         <v>0.78888888888888886</v>
       </c>
@@ -3106,10 +4631,10 @@
       <c r="J3">
         <v>90</v>
       </c>
-      <c r="K3" s="63">
+      <c r="K3" s="67">
         <v>540</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="65" t="s">
         <v>5</v>
       </c>
       <c r="N3" s="12" t="str">
@@ -3157,7 +4682,7 @@
       <c r="E4">
         <v>10</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="56">
         <f t="shared" si="0"/>
         <v>0.58888888888888891</v>
       </c>
@@ -3174,8 +4699,8 @@
       <c r="J4">
         <v>90</v>
       </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="61"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="65"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
@@ -3193,7 +4718,7 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="56">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
@@ -3210,8 +4735,8 @@
       <c r="J5">
         <v>90</v>
       </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="61"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="65"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
@@ -3229,7 +4754,7 @@
       <c r="E6">
         <v>41</v>
       </c>
-      <c r="F6" s="58">
+      <c r="F6" s="56">
         <f t="shared" si="0"/>
         <v>0.24444444444444444</v>
       </c>
@@ -3246,8 +4771,8 @@
       <c r="J6">
         <v>90</v>
       </c>
-      <c r="K6" s="63"/>
-      <c r="L6" s="61"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
@@ -3265,7 +4790,7 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="58">
+      <c r="F7" s="56">
         <f t="shared" si="0"/>
         <v>0.97777777777777775</v>
       </c>
@@ -3282,8 +4807,8 @@
       <c r="J7">
         <v>90</v>
       </c>
-      <c r="K7" s="63"/>
-      <c r="L7" s="61"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
@@ -3301,7 +4826,7 @@
       <c r="E8" s="2">
         <v>7</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="57">
         <f t="shared" si="0"/>
         <v>0.88888888888888884</v>
       </c>
@@ -3318,8 +4843,8 @@
       <c r="J8" s="2">
         <v>90</v>
       </c>
-      <c r="K8" s="64"/>
-      <c r="L8" s="62"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="66"/>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
@@ -3341,11 +4866,11 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="58">
         <f t="shared" si="0"/>
         <v>0.77142857142857146</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="58">
         <f t="shared" si="1"/>
         <v>0.87777777777777777</v>
       </c>
@@ -3383,11 +4908,11 @@
       <c r="F12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="72">
+      <c r="G12" s="59">
         <f t="shared" ref="G12:G18" si="4">(G2-F2)/F2</f>
         <v>-1.1904761904761862E-2</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="62">
         <f>(G9-F9)/F9</f>
         <v>0.13786008230452668</v>
       </c>
@@ -3396,7 +4921,7 @@
       <c r="F13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="59">
         <f t="shared" si="4"/>
         <v>0.12676056338028166</v>
       </c>
@@ -3405,7 +4930,7 @@
       <c r="F14" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="72">
+      <c r="G14" s="59">
         <f t="shared" si="4"/>
         <v>0.50943396226415083</v>
       </c>
@@ -3414,7 +4939,7 @@
       <c r="F15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="72">
+      <c r="G15" s="59">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3430,7 +4955,7 @@
       <c r="F16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="72">
+      <c r="G16" s="59">
         <f t="shared" si="4"/>
         <v>1.2272727272727271</v>
       </c>
@@ -3449,7 +4974,7 @@
       <c r="F17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="72">
+      <c r="G17" s="59">
         <f t="shared" si="4"/>
         <v>2.2727272727272759E-2</v>
       </c>
@@ -3469,7 +4994,7 @@
       <c r="F18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="73">
+      <c r="G18" s="60">
         <f t="shared" si="4"/>
         <v>3.7500000000000117E-2</v>
       </c>
@@ -3489,7 +5014,7 @@
       <c r="F19" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="74">
+      <c r="G19" s="61">
         <f>AVERAGE(G12:G18)</f>
         <v>0.27311282339138149</v>
       </c>
@@ -3630,65 +5155,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1600AACB-6262-4C4F-94B0-7DF174EBCB7C}">
-  <dimension ref="A8:V16"/>
+  <dimension ref="A8:V41"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="V14" sqref="U14:V14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="67" t="s">
+      <c r="D9" s="71"/>
+      <c r="E9" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="65" t="s">
+      <c r="F9" s="74"/>
+      <c r="G9" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="65" t="s">
+      <c r="H9" s="72"/>
+      <c r="I9" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="66"/>
-      <c r="K9" s="65" t="s">
+      <c r="J9" s="72"/>
+      <c r="K9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="65" t="s">
+      <c r="L9" s="72"/>
+      <c r="M9" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="66"/>
-      <c r="O9" s="65" t="s">
+      <c r="N9" s="72"/>
+      <c r="O9" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="65" t="s">
+      <c r="P9" s="72"/>
+      <c r="Q9" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="66"/>
-      <c r="S9" s="65" t="s">
+      <c r="R9" s="72"/>
+      <c r="S9" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="T9" s="66"/>
-      <c r="U9" s="65" t="s">
+      <c r="T9" s="72"/>
+      <c r="U9" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="69"/>
+      <c r="V9" s="75"/>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="71"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="49" t="s">
         <v>39</v>
       </c>
@@ -4083,11 +5614,11 @@
         <f t="shared" ref="D15:V15" si="2">SQRT(D14)</f>
         <v>2.5407785333546</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="52">
         <f t="shared" si="2"/>
         <v>2.3664319132398464</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="44">
         <f t="shared" si="2"/>
         <v>2.5407785333546</v>
       </c>
@@ -4157,22 +5688,185 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="Q16" s="56"/>
+      <c r="Q16" s="54"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C31" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="76">
+        <f>(C13-D13)/SQRT((C14/90)+(D14/90))</f>
+        <v>2.7322953332351241</v>
+      </c>
+      <c r="D32">
+        <f>_xlfn.NORM.S.DIST(C32,TRUE)</f>
+        <v>0.99685526327117246</v>
+      </c>
+      <c r="E32">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="76">
+        <f>(G13-H13)/SQRT((G14/G11)+(H14/90))</f>
+        <v>-17.472973213707583</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D40" si="3">_xlfn.NORM.S.DIST(C33,TRUE)</f>
+        <v>1.1509031817622255E-68</v>
+      </c>
+      <c r="E33">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="76">
+        <f>(I13-J13)/SQRT((I14/90)+(J14/90))</f>
+        <v>-46.245882379818546</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="76">
+        <f>(K13-L13)/SQRT((K14/90)+(L14/90))</f>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="E35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="76">
+        <f>(M13-N13)/SQRT((M14/90)+(N14/90))</f>
+        <v>-41.045189250723091</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="76">
+        <f>(O13-P13)/SQRT((O14/90)+(P14/90))</f>
+        <v>-13.568010505999354</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>3.0990813860668003E-42</v>
+      </c>
+      <c r="E37">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="76">
+        <f>(Q13-R13)/SQRT((Q14/90)+(R14/90))</f>
+        <v>-7.2655237183732844</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>1.8579785936944228E-13</v>
+      </c>
+      <c r="E38">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="76">
+        <f>(S13-T13)/SQRT((S14/S11)+(T14/T11))</f>
+        <v>-123.51949346798753</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="76">
+        <f>(U13-V13)/SQRT((U14/U11)+(V14/V11))</f>
+        <v>-125.80956603625955</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
   </mergeCells>
+  <conditionalFormatting sqref="D32:D40">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$E$32</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
